--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter05/DeleteRules_05_08.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter05/DeleteRules_05_08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F916F067-8CD7-429C-9041-3CDFFFE62E37}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557BCDEA-2C92-4C1E-9FC8-8DFCE83BF70D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -799,7 +799,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -848,13 +848,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{453ECAE6-7D8F-4077-9B1E-7EAF2BE3F477}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="11">
     <dxf>
       <font>
         <color theme="0"/>
@@ -864,18 +864,6 @@
           <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -910,48 +898,16 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4975,7 +4931,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -5440,34 +5396,8 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Total Price" fld="9" baseField="5" baseItem="35" numFmtId="44"/>
+    <dataField name="Sum of Total Price" fld="9" baseField="5" baseItem="35" numFmtId="164"/>
   </dataFields>
-  <conditionalFormats count="2">
-    <conditionalFormat scope="field" type="all" priority="1">
-      <pivotAreas count="1">
-        <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="5" count="0" selected="0"/>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat scope="field" type="all" priority="2">
-      <pivotAreas count="1">
-        <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="5" count="0" selected="0"/>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
   <pivotTableStyleInfo name="PivotStyleMedium10" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -5487,23 +5417,23 @@
     <sortCondition ref="D1:D275"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="9" xr3:uid="{DAD59615-226B-4A22-8326-9B63E8DF9B64}" name="OrderNum" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{A4CD1EFF-21D3-4004-B505-8B16F2E14272}" name="CustFullName" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{9FAAFF6D-9EFB-40D0-96FC-A9DC2AC13BB8}" name="State" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{9810CF2E-978C-4486-BDB9-58C9BAEECE63}" name="Date of Purchase" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{23982B9B-C2D3-4D47-9BFB-4D707B15B62E}" name="Category" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{DAD59615-226B-4A22-8326-9B63E8DF9B64}" name="OrderNum" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{A4CD1EFF-21D3-4004-B505-8B16F2E14272}" name="CustFullName" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{9FAAFF6D-9EFB-40D0-96FC-A9DC2AC13BB8}" name="State" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{9810CF2E-978C-4486-BDB9-58C9BAEECE63}" name="Date of Purchase" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{23982B9B-C2D3-4D47-9BFB-4D707B15B62E}" name="Category" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{B2635F67-BF90-4DBF-8F83-49BD22B87B81}" name="SKU"/>
     <tableColumn id="6" xr3:uid="{212BE5BE-EE72-4FEF-A648-FA7B4E165F07}" name="ProductName"/>
-    <tableColumn id="7" xr3:uid="{419E986C-8A16-491D-BA18-7E929CAD566B}" name="Quantity" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{419E986C-8A16-491D-BA18-7E929CAD566B}" name="Quantity" dataDxfId="5"/>
     <tableColumn id="8" xr3:uid="{B5B19F64-0A61-4C35-A8BD-8503D4E0B8A4}" name="Unit Price"/>
-    <tableColumn id="1" xr3:uid="{4B774375-693C-434C-9180-F03D73BB7731}" name="Total Price" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{4B774375-693C-434C-9180-F03D73BB7731}" name="Total Price" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5805,7 +5735,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -5959,12 +5889,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="B5:B11">
-    <cfRule type="aboveAverage" dxfId="1" priority="1" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="B5:B11">
-    <cfRule type="top10" dxfId="0" priority="2" rank="4"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
@@ -5978,7 +5902,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
